--- a/data/Subset1_WithDialogActs/Math SW2 transcript.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset1_WithDialogActs/Math SW2 transcript.xlsx_with_dialog_acts.xlsx
@@ -513,12 +513,12 @@
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -723,12 +723,12 @@
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1017,12 +1017,12 @@
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1605,12 +1605,12 @@
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2701,12 +2701,12 @@
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2743,12 +2743,12 @@
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2827,12 +2827,12 @@
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3163,12 +3163,12 @@
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3457,12 +3457,12 @@
       <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3965,12 +3965,12 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -4007,12 +4007,12 @@
       <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4049,12 +4049,12 @@
       <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4217,12 +4217,12 @@
       <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4259,12 +4259,12 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4385,12 +4385,12 @@
       <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -5141,12 +5141,12 @@
       <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5183,12 +5183,12 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5519,12 +5519,12 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5687,12 +5687,12 @@
       <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5813,12 +5813,12 @@
       <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5897,12 +5897,12 @@
       <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -6443,12 +6443,12 @@
       <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6955,12 +6955,12 @@
       <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6997,12 +6997,12 @@
       <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7123,12 +7123,12 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7337,12 +7337,12 @@
       <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7799,12 +7799,12 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -7841,12 +7841,12 @@
       <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -8979,12 +8979,12 @@
       <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9109,12 +9109,12 @@
       <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9319,12 +9319,12 @@
       <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -10159,12 +10159,12 @@
       <c r="H231" t="inlineStr"/>
       <c r="I231" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10327,12 +10327,12 @@
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -10453,12 +10453,12 @@
       <c r="H238" t="inlineStr"/>
       <c r="I238" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11251,12 +11251,12 @@
       <c r="H257" t="inlineStr"/>
       <c r="I257" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J257" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11419,12 +11419,12 @@
       <c r="H261" t="inlineStr"/>
       <c r="I261" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J261" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11629,12 +11629,12 @@
       <c r="H266" t="inlineStr"/>
       <c r="I266" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J266" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -11671,12 +11671,12 @@
       <c r="H267" t="inlineStr"/>
       <c r="I267" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J267" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12217,12 +12217,12 @@
       <c r="H280" t="inlineStr"/>
       <c r="I280" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J280" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -12301,12 +12301,12 @@
       <c r="H282" t="inlineStr"/>
       <c r="I282" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J282" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -12469,12 +12469,12 @@
       <c r="H286" t="inlineStr"/>
       <c r="I286" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J286" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -12847,12 +12847,12 @@
       <c r="H295" t="inlineStr"/>
       <c r="I295" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J295" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -13141,12 +13141,12 @@
       <c r="H302" t="inlineStr"/>
       <c r="I302" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J302" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13309,12 +13309,12 @@
       <c r="H306" t="inlineStr"/>
       <c r="I306" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J306" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -13519,12 +13519,12 @@
       <c r="H311" t="inlineStr"/>
       <c r="I311" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J311" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13771,12 +13771,12 @@
       <c r="H317" t="inlineStr"/>
       <c r="I317" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J317" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -13855,12 +13855,12 @@
       <c r="H319" t="inlineStr"/>
       <c r="I319" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J319" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14065,12 +14065,12 @@
       <c r="H324" t="inlineStr"/>
       <c r="I324" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J324" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -14401,12 +14401,12 @@
       <c r="H332" t="inlineStr"/>
       <c r="I332" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J332" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14485,12 +14485,12 @@
       <c r="H334" t="inlineStr"/>
       <c r="I334" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J334" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -15157,12 +15157,12 @@
       <c r="H350" t="inlineStr"/>
       <c r="I350" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J350" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15409,12 +15409,12 @@
       <c r="H356" t="inlineStr"/>
       <c r="I356" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J356" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -15451,12 +15451,12 @@
       <c r="H357" t="inlineStr"/>
       <c r="I357" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J357" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15535,12 +15535,12 @@
       <c r="H359" t="inlineStr"/>
       <c r="I359" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J359" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -15577,12 +15577,12 @@
       <c r="H360" t="inlineStr"/>
       <c r="I360" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J360" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -15703,12 +15703,12 @@
       <c r="H363" t="inlineStr"/>
       <c r="I363" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J363" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -15745,12 +15745,12 @@
       <c r="H364" t="inlineStr"/>
       <c r="I364" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J364" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -16291,12 +16291,12 @@
       </c>
       <c r="I377" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J377" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -16543,12 +16543,12 @@
       <c r="H383" t="inlineStr"/>
       <c r="I383" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J383" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -16627,12 +16627,12 @@
       <c r="H385" t="inlineStr"/>
       <c r="I385" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J385" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -17009,12 +17009,12 @@
       <c r="H394" t="inlineStr"/>
       <c r="I394" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J394" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -17387,12 +17387,12 @@
       <c r="H403" t="inlineStr"/>
       <c r="I403" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J403" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -17429,12 +17429,12 @@
       </c>
       <c r="I404" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J404" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -17723,12 +17723,12 @@
       <c r="H411" t="inlineStr"/>
       <c r="I411" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J411" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -17765,12 +17765,12 @@
       <c r="H412" t="inlineStr"/>
       <c r="I412" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J412" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18311,12 +18311,12 @@
       <c r="H425" t="inlineStr"/>
       <c r="I425" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J425" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18399,12 +18399,12 @@
       <c r="H427" t="inlineStr"/>
       <c r="I427" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J427" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19533,12 +19533,12 @@
       <c r="H454" t="inlineStr"/>
       <c r="I454" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J454" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
